--- a/biology/Médecine/Jean-Marie_Jacquemier/Jean-Marie_Jacquemier.xlsx
+++ b/biology/Médecine/Jean-Marie_Jacquemier/Jean-Marie_Jacquemier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Marie Jacquemier, né le 14 janvier 1806 à Cessy et mort le 14 juin 1879 à Paris, est un médecin obstétricien connu pour une méthode d'accouchement en cas de dystocie des épaules[1]. Il a été membre de l'académie nationale de médecine de 1860 à sa mort[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Marie Jacquemier, né le 14 janvier 1806 à Cessy et mort le 14 juin 1879 à Paris, est un médecin obstétricien connu pour une méthode d'accouchement en cas de dystocie des épaules. Il a été membre de l'académie nationale de médecine de 1860 à sa mort.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1862)</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Académie nationale de médecine conserve son buste en marbre blanc, œuvre du sculpteur Louis-Ernest Barrias[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Académie nationale de médecine conserve son buste en marbre blanc, œuvre du sculpteur Louis-Ernest Barrias.</t>
         </is>
       </c>
     </row>
